--- a/data/expt_2/raw_transcripts/game80.xlsx
+++ b/data/expt_2/raw_transcripts/game80.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MVI_0098.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVI_0098.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="125">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -274,9 +274,6 @@
     <t xml:space="preserve">Flying person</t>
   </si>
   <si>
-    <t xml:space="preserve">MODEL CUTS OUT 30 SECONDS OF VIDEO</t>
-  </si>
-  <si>
     <t xml:space="preserve">great job</t>
   </si>
   <si>
@@ -325,7 +322,7 @@
     <t xml:space="preserve">A person who's holding a triangle.</t>
   </si>
   <si>
-    <t xml:space="preserve">A person holding.a triangle</t>
+    <t xml:space="preserve">A person who’s holding.a triangle</t>
   </si>
   <si>
     <t xml:space="preserve"> Mm-hmm, so you can guess it</t>
@@ -438,18 +435,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -486,16 +477,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,2092 +506,2196 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H109" activeCellId="0" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="G131" activeCellId="0" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="47.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="47.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>19000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>19000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>54000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>54000</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>56000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>56000</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>57000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>57000</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>62640</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>63940</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>73340</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>63940</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>73340</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>63940</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>73340</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>73980</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>80620</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>80620</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>86980</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>86980</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>92680</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>92680</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>94220</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>94640</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>98100</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>99020</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>107340</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>107760</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>113640</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>113640</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>121080</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>121860</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>126420</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>126780</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>130020</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>130440</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>134400</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>135200</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>139100</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>140900</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>142000</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>142000</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>149000</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>149000</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>152000</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>152000</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>160000</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>160000</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>166000</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>166000</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>168000</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>168000</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>171000</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>171000</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>175000</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="n">
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>175000</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>178000</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>178000</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>181000</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>181000</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>182000</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>182000</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>186000</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>186000</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>192000</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>196000</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>214880</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>214880</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>218760</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>214880</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>218760</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>218760</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>221500</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>221500</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>223660</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>223660</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>224620</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>224620</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>234620</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="n">
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>234620</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>235620</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>235620</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>241620</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="n">
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>241620</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>245620</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>245620</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>247620</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>247620</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>249620</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>249620</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>251620</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>249620</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>251620</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>251620</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>252620</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>252620</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>254620</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1" t="n">
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>257620</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>259620</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>259620</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>260620</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>260620</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>261620</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1" t="n">
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>262620</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>267620</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>267620</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>273620</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>273620</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>277620</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>277620</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>279620</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>279620</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>281620</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>281620</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>284620</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="n">
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>283620</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3" t="n">
         <v>284620</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>283620</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3" t="n">
         <v>284620</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>283620</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>284620</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
         <v>283620</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B78" s="3" t="n">
         <v>284620</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
-        <v>283620</v>
-      </c>
-      <c r="B78" s="2" t="n">
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>284620</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="2" t="n">
+        <v>287620</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>284620</v>
-      </c>
-      <c r="B79" s="1" t="n">
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>287620</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="2" t="n">
+        <v>288620</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>287620</v>
-      </c>
-      <c r="B80" s="1" t="n">
+      <c r="D80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>288620</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B81" s="2" t="n">
+        <v>290620</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>290620</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>294620</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>288620</v>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>290620</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>290620</v>
-      </c>
-      <c r="B82" s="1" t="n">
+      <c r="H82" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>294620</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="B83" s="2" t="n">
+        <v>299620</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>299620</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>301620</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>301620</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>302620</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>307620</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>314620</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>314620</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>317620</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>317620</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>321620</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>321620</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>325620</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>325620</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>328620</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H90" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>328620</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>331620</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>331620</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>332620</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>332620</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>334620</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>334620</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>336620</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>294620</v>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>299620</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>299620</v>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>301620</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>301620</v>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>302620</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
+      <c r="D94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>344620</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>347620</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>344620</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>347620</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>307620</v>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>314620</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>314620</v>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>317620</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>317620</v>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>321620</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>321620</v>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>325620</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>325620</v>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>328620</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="H96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>349620</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>351620</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>355620</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>357620</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>328620</v>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>331620</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>331620</v>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>332620</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="H98" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>360620</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>362620</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>366620</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>369620</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>369620</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>370620</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>370620</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>375620</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>375620</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>378620</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>378620</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>380620</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>332620</v>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>334620</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>334620</v>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>336620</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>344620</v>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>347620</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>344620</v>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>347620</v>
-      </c>
-      <c r="C96" s="1" t="s">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>380620</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>381620</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>381620</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>384620</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>384620</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>388620</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>388620</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>390620</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>390620</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>391620</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>391620</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>398620</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>398620</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>399620</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>399620</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>401620</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>406620</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>410620</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="1" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>410620</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>416620</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>416620</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>420620</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>420620</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>423620</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>423620</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>433620</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H117" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>433620</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>436620</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>349620</v>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>351620</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>355620</v>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>357620</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>436620</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>441620</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>360620</v>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>362620</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>366620</v>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>369620</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="H119" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>441620</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>445620</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>445620</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>455620</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>455620</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>456620</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>369620</v>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>370620</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>370620</v>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>375620</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="1" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>456620</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>460620</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>375620</v>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>378620</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>378620</v>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>380620</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>380620</v>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>381620</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>381620</v>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>384620</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>384620</v>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>388620</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="H123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>460620</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>461620</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>461620</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>462620</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>388620</v>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>390620</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>390620</v>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>391620</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>391620</v>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>398620</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>398620</v>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>399620</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>399620</v>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>401620</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>406620</v>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>410620</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>410620</v>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>416620</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>416620</v>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>420620</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>420620</v>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>423620</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>423620</v>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>433620</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>433620</v>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>436620</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>436620</v>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>441620</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>441620</v>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>445620</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>445620</v>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>455620</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>455620</v>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>456620</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>456620</v>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>460620</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>462620</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>463620</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>460620</v>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>461620</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>461620</v>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>462620</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>462620</v>
-      </c>
-      <c r="B126" s="1" t="n">
+      <c r="D126" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>463620</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="B127" s="2" t="n">
+        <v>468620</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>463620</v>
-      </c>
-      <c r="B127" s="1" t="n">
+      <c r="D127" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>468620</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="B128" s="2" t="n">
+        <v>470620</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>468620</v>
-      </c>
-      <c r="B128" s="1" t="n">
+      <c r="D128" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>470620</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="B129" s="2" t="n">
+        <v>472620</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>470620</v>
-      </c>
-      <c r="B129" s="1" t="n">
+      <c r="D129" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
         <v>472620</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="B130" s="2" t="n">
+        <v>474620</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>474620</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>481620</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>472620</v>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>474620</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>474620</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>481620</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>485620</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>488620</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>485620</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>488620</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game80.xlsx
+++ b/data/expt_2/raw_transcripts/game80.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">A paintballer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id178</t>
   </si>
   <si>
     <t xml:space="preserve"> Do you want to, oh you're not?</t>
@@ -477,16 +474,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,16 +613,16 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G131" activeCellId="0" sqref="G131"/>
+      <selection pane="bottomLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="47.63"/>
@@ -1742,10 +1735,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="2" t="n">
         <v>284620</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -1762,10 +1755,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="2" t="n">
         <v>284620</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -1777,10 +1770,10 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="2" t="n">
         <v>284620</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -1794,10 +1787,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="2" t="n">
         <v>283620</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="2" t="n">
         <v>284620</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1914,7 +1907,7 @@
         <v>93</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -1932,7 +1925,7 @@
         <v>314620</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
@@ -1946,7 +1939,7 @@
         <v>317620</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>9</v>
@@ -1963,7 +1956,7 @@
         <v>321620</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
@@ -1977,7 +1970,7 @@
         <v>325620</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>9</v>
@@ -1991,7 +1984,7 @@
         <v>328620</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>25</v>
@@ -2000,7 +1993,7 @@
         <v>60</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2035,7 @@
         <v>334620</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>9</v>
@@ -2073,7 +2066,7 @@
         <v>347620</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>9</v>
@@ -2087,7 +2080,7 @@
         <v>347620</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
@@ -2096,7 +2089,7 @@
         <v>60</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2100,7 @@
         <v>351620</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>9</v>
@@ -2124,7 +2117,7 @@
         <v>357620</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>25</v>
@@ -2133,7 +2126,7 @@
         <v>60</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2154,7 @@
         <v>369620</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>29</v>
@@ -2170,7 +2163,7 @@
         <v>60</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,7 +2174,7 @@
         <v>370620</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>9</v>
@@ -2198,7 +2191,7 @@
         <v>375620</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>25</v>
@@ -2207,7 +2200,7 @@
         <v>60</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2211,7 @@
         <v>378620</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
@@ -2235,7 +2228,7 @@
         <v>380620</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>25</v>
@@ -2266,7 +2259,7 @@
         <v>384620</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
@@ -2280,7 +2273,7 @@
         <v>388620</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -2289,7 +2282,7 @@
         <v>60</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2307,7 @@
         <v>391620</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>9</v>
@@ -2331,7 +2324,7 @@
         <v>398620</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>25</v>
@@ -2340,7 +2333,7 @@
         <v>60</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,7 +2358,7 @@
         <v>401620</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>9</v>
@@ -2382,7 +2375,7 @@
         <v>410620</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>29</v>
@@ -2391,7 +2384,7 @@
         <v>60</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +2412,7 @@
         <v>420620</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>25</v>
@@ -2428,7 +2421,7 @@
         <v>60</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,7 +2449,7 @@
         <v>433620</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>29</v>
@@ -2465,7 +2458,7 @@
         <v>60</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +2469,7 @@
         <v>436620</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>9</v>
@@ -2493,7 +2486,7 @@
         <v>441620</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>25</v>
@@ -2502,7 +2495,7 @@
         <v>60</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2523,7 @@
         <v>455620</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>9</v>
@@ -2544,7 +2537,7 @@
         <v>456620</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -2561,7 +2554,7 @@
         <v>460620</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -2570,7 +2563,7 @@
         <v>60</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2588,7 @@
         <v>462620</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>9</v>
@@ -2609,7 +2602,7 @@
         <v>463620</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>9</v>
@@ -2623,7 +2616,7 @@
         <v>468620</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>9</v>
@@ -2637,7 +2630,7 @@
         <v>470620</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>9</v>
@@ -2651,7 +2644,7 @@
         <v>472620</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>9</v>
@@ -2665,7 +2658,7 @@
         <v>474620</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2672,7 @@
         <v>481620</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>9</v>
@@ -2693,7 +2686,7 @@
         <v>488620</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>

--- a/data/expt_2/raw_transcripts/game80.xlsx
+++ b/data/expt_2/raw_transcripts/game80.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="126">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">So I can remember how you guys play the game.</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Okay.</t>
@@ -474,7 +480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +490,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,12 +620,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="I124" activeCellId="0" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,6 +663,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -662,10 +675,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,10 +689,10 @@
         <v>3000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,10 +703,10 @@
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,10 +717,10 @@
         <v>8000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,10 +731,10 @@
         <v>9000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +745,10 @@
         <v>13000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,10 +759,10 @@
         <v>19000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,10 +773,10 @@
         <v>23000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,10 +787,10 @@
         <v>27000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +801,10 @@
         <v>28000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,10 +815,10 @@
         <v>34000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,10 +829,10 @@
         <v>40000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,10 +843,10 @@
         <v>41000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,10 +857,10 @@
         <v>44000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,10 +871,10 @@
         <v>50000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,10 +885,10 @@
         <v>54000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +899,10 @@
         <v>56000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,10 +913,10 @@
         <v>57000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,10 +927,10 @@
         <v>62640</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +941,10 @@
         <v>73340</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,10 +955,10 @@
         <v>73340</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,10 +969,10 @@
         <v>73340</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,10 +983,10 @@
         <v>80620</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,10 +997,10 @@
         <v>86980</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,10 +1011,10 @@
         <v>92680</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +1025,10 @@
         <v>94220</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,10 +1039,10 @@
         <v>98100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,10 +1053,10 @@
         <v>107340</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,10 +1067,10 @@
         <v>113640</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,10 +1081,10 @@
         <v>121080</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,10 +1095,10 @@
         <v>126420</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1109,10 @@
         <v>130020</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,10 +1123,10 @@
         <v>134400</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,10 +1137,10 @@
         <v>139100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,10 +1151,10 @@
         <v>142000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,10 +1165,10 @@
         <v>149000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,10 +1179,10 @@
         <v>152000</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,10 +1193,10 @@
         <v>160000</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,10 +1207,10 @@
         <v>166000</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,10 +1221,10 @@
         <v>168000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,10 +1235,10 @@
         <v>171000</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,10 +1249,10 @@
         <v>175000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>0</v>
@@ -1253,13 +1266,13 @@
         <v>178000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1283,10 @@
         <v>181000</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1297,10 @@
         <v>182000</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1311,10 @@
         <v>186000</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1325,10 @@
         <v>192000</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,10 +1339,10 @@
         <v>214880</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1353,10 @@
         <v>218760</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,16 +1367,19 @@
         <v>218760</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>59</v>
+      <c r="I51" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,10 +1390,10 @@
         <v>221500</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,10 +1404,10 @@
         <v>223660</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,10 +1418,10 @@
         <v>224620</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,10 +1432,10 @@
         <v>234620</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
@@ -1433,16 +1449,19 @@
         <v>235620</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,10 +1472,10 @@
         <v>241620</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>2</v>
@@ -1470,10 +1489,10 @@
         <v>245620</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,16 +1503,19 @@
         <v>247620</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,10 +1526,10 @@
         <v>249620</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,13 +1540,13 @@
         <v>251620</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,10 +1557,10 @@
         <v>251620</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,10 +1571,10 @@
         <v>252620</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,10 +1585,10 @@
         <v>254620</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>3</v>
@@ -1580,16 +1602,19 @@
         <v>259620</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,10 +1625,10 @@
         <v>260620</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,10 +1639,10 @@
         <v>261620</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>4</v>
@@ -1631,13 +1656,16 @@
         <v>267620</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1676,10 @@
         <v>273620</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1690,10 @@
         <v>277620</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,10 +1704,10 @@
         <v>279620</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,16 +1718,19 @@
         <v>281620</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,10 +1741,10 @@
         <v>283620</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -1725,10 +1756,10 @@
         <v>284620</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>5</v>
@@ -1742,16 +1773,19 @@
         <v>284620</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,10 +1796,10 @@
         <v>284620</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G76" s="2"/>
     </row>
@@ -1777,10 +1811,10 @@
         <v>284620</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>6</v>
@@ -1794,10 +1828,10 @@
         <v>284620</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,10 +1842,10 @@
         <v>287620</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,13 +1856,13 @@
         <v>288620</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,10 +1873,10 @@
         <v>290620</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,16 +1887,19 @@
         <v>294620</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +1910,10 @@
         <v>299620</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>7</v>
@@ -1890,10 +1927,10 @@
         <v>301620</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,17 +1941,20 @@
         <v>302620</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,10 +1965,10 @@
         <v>314620</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,10 +1979,10 @@
         <v>317620</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>8</v>
@@ -1956,10 +1996,10 @@
         <v>321620</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +2010,10 @@
         <v>325620</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,16 +2024,19 @@
         <v>328620</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,10 +2047,10 @@
         <v>331620</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,13 +2061,13 @@
         <v>332620</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,10 +2078,10 @@
         <v>334620</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,10 +2092,10 @@
         <v>336620</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>9</v>
@@ -2066,10 +2109,10 @@
         <v>347620</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,16 +2123,19 @@
         <v>347620</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2146,10 @@
         <v>351620</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>10</v>
@@ -2117,16 +2163,19 @@
         <v>357620</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,10 +2186,10 @@
         <v>362620</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>11</v>
@@ -2154,16 +2203,19 @@
         <v>369620</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,10 +2226,10 @@
         <v>370620</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>12</v>
@@ -2191,16 +2243,19 @@
         <v>375620</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,10 +2266,10 @@
         <v>378620</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>13</v>
@@ -2228,13 +2283,16 @@
         <v>380620</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2303,10 @@
         <v>381620</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,10 +2317,10 @@
         <v>384620</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,16 +2331,19 @@
         <v>388620</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +2354,10 @@
         <v>390620</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,10 +2368,10 @@
         <v>391620</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>14</v>
@@ -2324,16 +2385,19 @@
         <v>398620</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2408,10 @@
         <v>399620</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,10 +2422,10 @@
         <v>401620</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>15</v>
@@ -2375,16 +2439,19 @@
         <v>410620</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2462,10 @@
         <v>416620</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>16</v>
@@ -2412,16 +2479,19 @@
         <v>420620</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2502,10 @@
         <v>423620</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>17</v>
@@ -2449,16 +2519,19 @@
         <v>433620</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2542,10 @@
         <v>436620</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>18</v>
@@ -2486,16 +2559,19 @@
         <v>441620</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,10 +2582,10 @@
         <v>445620</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>19</v>
@@ -2523,10 +2599,10 @@
         <v>455620</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,13 +2613,13 @@
         <v>456620</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,16 +2630,19 @@
         <v>460620</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2653,10 @@
         <v>461620</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,10 +2667,10 @@
         <v>462620</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,10 +2681,10 @@
         <v>463620</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2695,10 @@
         <v>468620</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2709,10 @@
         <v>470620</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,10 +2723,10 @@
         <v>472620</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2737,10 @@
         <v>474620</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,10 +2751,10 @@
         <v>481620</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2765,10 @@
         <v>488620</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
